--- a/nr-add-puml/ig/all-profiles.xlsx
+++ b/nr-add-puml/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-26T14:27:23+00:00</t>
+    <t>2024-08-26T14:39:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
